--- a/data/raw/correlates_wb.xlsx
+++ b/data/raw/correlates_wb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kudrzycb/polybox/Youth Employment/1b Index/youth-lmi/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61DEF86-329D-0647-B37B-00C0A060C079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ACF674-DDF7-914C-B071-60048A58BABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="440" windowWidth="26340" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Series - Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1506,11 +1506,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="68.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
